--- a/scripts/material_aula_1/material/bd_1.xlsx
+++ b/scripts/material_aula_1/material/bd_1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\azeve\OneDrive\Área de Trabalho\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\azeve\Videos\curso_analise_dados_ciencias_sociais\scripts\material_aula_1\material\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA61B616-EA20-4F2C-8D77-47031816ACC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E174B9DF-5110-4BC2-BE57-71C6C2B1E793}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43080" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E4764DCC-3A27-4491-9FE0-26D78E24EF8E}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{E4764DCC-3A27-4491-9FE0-26D78E24EF8E}"/>
   </bookViews>
   <sheets>
     <sheet name="bd" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
   <si>
     <t>aluno</t>
   </si>
@@ -81,6 +81,72 @@
   </si>
   <si>
     <t>Laura</t>
+  </si>
+  <si>
+    <t>data_inicial</t>
+  </si>
+  <si>
+    <t>data_final</t>
+  </si>
+  <si>
+    <t>05_11_2023</t>
+  </si>
+  <si>
+    <t>28_02_2024</t>
+  </si>
+  <si>
+    <t>12_07_2023</t>
+  </si>
+  <si>
+    <t>21_09_2024</t>
+  </si>
+  <si>
+    <t>06_01_2023</t>
+  </si>
+  <si>
+    <t>19_04_2024</t>
+  </si>
+  <si>
+    <t>31_12_2023</t>
+  </si>
+  <si>
+    <t>10_08_2024</t>
+  </si>
+  <si>
+    <t>14_06_2023</t>
+  </si>
+  <si>
+    <t>02_03_2024</t>
+  </si>
+  <si>
+    <t>03_10_2023</t>
+  </si>
+  <si>
+    <t>17_05_2024</t>
+  </si>
+  <si>
+    <t>22_11_2023</t>
+  </si>
+  <si>
+    <t>09_03_2024</t>
+  </si>
+  <si>
+    <t>28_08_2023</t>
+  </si>
+  <si>
+    <t>15_02_2024</t>
+  </si>
+  <si>
+    <t>07_06_2023</t>
+  </si>
+  <si>
+    <t>24_09_2024</t>
+  </si>
+  <si>
+    <t>11_04_2023</t>
+  </si>
+  <si>
+    <t>30_07_2024</t>
   </si>
 </sst>
 </file>
@@ -452,15 +518,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC4CEA64-2225-4D12-B2FC-886B26AF8EC3}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -470,8 +539,14 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -481,8 +556,14 @@
       <c r="C2">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -492,8 +573,14 @@
       <c r="C3">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -503,8 +590,14 @@
       <c r="C4">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -514,8 +607,14 @@
       <c r="C5">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -525,8 +624,14 @@
       <c r="C6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -536,8 +641,14 @@
       <c r="C7">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -547,8 +658,14 @@
       <c r="C8">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -558,8 +675,14 @@
       <c r="C9">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -569,8 +692,14 @@
       <c r="C10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -579,6 +708,12 @@
       </c>
       <c r="C11">
         <v>8</v>
+      </c>
+      <c r="D11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
